--- a/Doc/优化性能方案.xlsx
+++ b/Doc/优化性能方案.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>角色Material数量</t>
   </si>
@@ -289,6 +289,31 @@
   </si>
   <si>
     <t>Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原色：没有过度绘制</t>
+  </si>
+  <si>
+    <t>蓝色：1 次过度绘制</t>
+  </si>
+  <si>
+    <t>绿色：2 次过度绘制</t>
+  </si>
+  <si>
+    <t>粉色：3 次过度绘制</t>
+  </si>
+  <si>
+    <t>红色：4 次及以上过度绘制</t>
+  </si>
+  <si>
+    <t>overdraw</t>
+  </si>
+  <si>
+    <t>第一发子弹卡应该是Shader.CreateGPUProgram</t>
+  </si>
+  <si>
+    <t>在预加载时用一个相机强制渲染一个片，这个片的材质是战斗中需要预加载东西的材质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1052,42 @@
         <v>80</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
